--- a/terms/fibulaTerms.xlsx
+++ b/terms/fibulaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43E2FF-24E6-3347-8EB3-3A05D54121D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027344EF-BD81-9848-BB58-DFB748AFDED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{12BECF94-032B-504C-A033-74CD1DFFF6BD}"/>
+    <workbookView xWindow="360" yWindow="1920" windowWidth="14400" windowHeight="8320" activeTab="1" xr2:uid="{12BECF94-032B-504C-A033-74CD1DFFF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>fibula length</t>
-  </si>
-  <si>
-    <t>fibula</t>
-  </si>
-  <si>
-    <t>proximal-distal</t>
   </si>
   <si>
     <t>in OBA</t>
@@ -505,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F662A54-D55F-4F46-847F-A4520EABE4D0}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -539,7 +533,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -555,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6B6138-3E73-7D48-B9AE-F4464E74958B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,17 +569,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
